--- a/artfynd/A 28772-2023.xlsx
+++ b/artfynd/A 28772-2023.xlsx
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>805625.6008122056</v>
+        <v>805626</v>
       </c>
       <c r="R2" t="n">
-        <v>7353274.933448518</v>
+        <v>7353275</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-06-14</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">

--- a/artfynd/A 28772-2023.xlsx
+++ b/artfynd/A 28772-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112181844</v>
       </c>
       <c r="B2" t="n">
-        <v>93881</v>
+        <v>94034</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 28772-2023.xlsx
+++ b/artfynd/A 28772-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112181844</v>
       </c>
       <c r="B2" t="n">
-        <v>94034</v>
+        <v>94048</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
